--- a/mvp/рецепт олів'є.xlsx
+++ b/mvp/рецепт олів'є.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,13 +412,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="16.1796875" customWidth="1" min="1" max="1"/>
-    <col width="8.1796875" customWidth="1" min="2" max="9"/>
+    <col width="16.21875" customWidth="1" min="1" max="1"/>
+    <col width="8.21875" customWidth="1" min="2" max="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
